--- a/data/trans_camb/P42C_R-Clase-trans_camb.xlsx
+++ b/data/trans_camb/P42C_R-Clase-trans_camb.xlsx
@@ -649,22 +649,22 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-17,12; -0,98</t>
+          <t>-17,05; -0,16</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-5,51; 10,05</t>
+          <t>-4,69; 11,23</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-17,12; -0,98</t>
+          <t>-17,05; -0,16</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-5,51; 10,05</t>
+          <t>-4,69; 11,23</t>
         </is>
       </c>
     </row>
@@ -725,22 +725,22 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-36,37; -2,74</t>
+          <t>-36,74; -0,48</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-11,55; 26,18</t>
+          <t>-9,86; 28,77</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-36,37; -2,74</t>
+          <t>-36,74; -0,48</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-11,55; 26,18</t>
+          <t>-9,86; 28,77</t>
         </is>
       </c>
     </row>
@@ -805,22 +805,22 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-20,71; -4,64</t>
+          <t>-22,08; -5,29</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-6,73; 11,13</t>
+          <t>-6,68; 10,41</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-20,71; -4,64</t>
+          <t>-22,08; -5,29</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-6,73; 11,13</t>
+          <t>-6,68; 10,41</t>
         </is>
       </c>
     </row>
@@ -881,22 +881,22 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-45,95; -12,65</t>
+          <t>-47,35; -13,79</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-14,83; 30,19</t>
+          <t>-14,82; 27,99</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-45,95; -12,65</t>
+          <t>-47,35; -13,79</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-14,83; 30,19</t>
+          <t>-14,82; 27,99</t>
         </is>
       </c>
     </row>
@@ -961,22 +961,22 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-23,59; -7,28</t>
+          <t>-23,25; -7,44</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-12,41; 6,29</t>
+          <t>-13,07; 5,26</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-23,59; -7,28</t>
+          <t>-23,25; -7,44</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-12,41; 6,29</t>
+          <t>-13,07; 5,26</t>
         </is>
       </c>
     </row>
@@ -1037,22 +1037,22 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-76,85; -32,18</t>
+          <t>-76,97; -32,1</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-41,46; 27,48</t>
+          <t>-44,22; 25,52</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-76,85; -32,18</t>
+          <t>-76,97; -32,1</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-41,46; 27,48</t>
+          <t>-44,22; 25,52</t>
         </is>
       </c>
     </row>
@@ -1117,22 +1117,22 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-11,84; -3,2</t>
+          <t>-11,88; -3,32</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-5,75; 4,4</t>
+          <t>-5,57; 4,03</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-11,84; -3,2</t>
+          <t>-11,88; -3,32</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-5,75; 4,4</t>
+          <t>-5,57; 4,03</t>
         </is>
       </c>
     </row>
@@ -1193,22 +1193,22 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-48,72; -16,46</t>
+          <t>-48,81; -16,58</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-23,38; 22,69</t>
+          <t>-23,29; 21,11</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-48,72; -16,46</t>
+          <t>-48,81; -16,58</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-23,38; 22,69</t>
+          <t>-23,29; 21,11</t>
         </is>
       </c>
     </row>
@@ -1273,22 +1273,22 @@
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-12,69; -4,93</t>
+          <t>-12,58; -4,82</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-10,51; -1,97</t>
+          <t>-10,79; -1,44</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-12,69; -4,93</t>
+          <t>-12,58; -4,82</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-10,51; -1,97</t>
+          <t>-10,79; -1,44</t>
         </is>
       </c>
     </row>
@@ -1349,22 +1349,22 @@
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-71,91; -36,7</t>
+          <t>-71,48; -36,36</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-61,45; -14,17</t>
+          <t>-62,07; -12,56</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-71,91; -36,7</t>
+          <t>-71,48; -36,36</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-61,45; -14,17</t>
+          <t>-62,07; -12,56</t>
         </is>
       </c>
     </row>
@@ -1429,22 +1429,22 @@
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-10,39; -2,94</t>
+          <t>-10,38; -3,01</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-7,66; 1,11</t>
+          <t>-7,96; 0,77</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-10,39; -2,94</t>
+          <t>-10,38; -3,01</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-7,66; 1,11</t>
+          <t>-7,96; 0,77</t>
         </is>
       </c>
     </row>
@@ -1505,22 +1505,22 @@
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-52,81; -17,55</t>
+          <t>-52,88; -19,01</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-39,09; 7,83</t>
+          <t>-40,96; 4,58</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-52,81; -17,55</t>
+          <t>-52,88; -19,01</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-39,09; 7,83</t>
+          <t>-40,96; 4,58</t>
         </is>
       </c>
     </row>
@@ -1585,22 +1585,22 @@
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-10,71; -6,38</t>
+          <t>-10,95; -6,32</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-4,57; 1,45</t>
+          <t>-4,68; 1,53</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-10,71; -6,38</t>
+          <t>-10,95; -6,32</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-4,57; 1,45</t>
+          <t>-4,68; 1,53</t>
         </is>
       </c>
     </row>
@@ -1661,22 +1661,22 @@
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-42,54; -28,06</t>
+          <t>-43,35; -27,74</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>-17,93; 6,25</t>
+          <t>-18,37; 6,51</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-42,54; -28,06</t>
+          <t>-43,35; -27,74</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-17,93; 6,25</t>
+          <t>-18,37; 6,51</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P42C_R-Clase-trans_camb.xlsx
+++ b/data/trans_camb/P42C_R-Clase-trans_camb.xlsx
@@ -1371,7 +1371,7 @@
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B24" s="3" t="inlineStr">
